--- a/Data/DataAnalysis.xlsx
+++ b/Data/DataAnalysis.xlsx
@@ -520,7 +520,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -536,8 +536,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -553,6 +560,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -704,7 +717,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -736,6 +749,8 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6198,10 +6213,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:M151"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+      <selection activeCell="L108" sqref="L108:L140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6244,7 +6260,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>5.0999999999999996</v>
       </c>
@@ -6281,7 +6297,7 @@
         <v>20.399999999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>4.9000000000000004</v>
       </c>
@@ -6318,7 +6334,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>4.7</v>
       </c>
@@ -6341,7 +6357,7 @@
         <v>0.26</v>
       </c>
       <c r="I4">
-        <f t="shared" ref="I3:I66" si="1">F4+H4</f>
+        <f t="shared" ref="I4:I66" si="1">F4+H4</f>
         <v>15.299999999999999</v>
       </c>
       <c r="J4" s="10">
@@ -6355,7 +6371,7 @@
         <v>18.8</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4.5999999999999996</v>
       </c>
@@ -6392,7 +6408,7 @@
         <v>18.799999999999997</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -6429,7 +6445,7 @@
         <v>20.399999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5.4</v>
       </c>
@@ -6466,7 +6482,7 @@
         <v>22.8</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>4.5999999999999996</v>
       </c>
@@ -6503,7 +6519,7 @@
         <v>19.400000000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>5</v>
       </c>
@@ -6540,7 +6556,7 @@
         <v>20.2</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>4.4000000000000004</v>
       </c>
@@ -6577,7 +6593,7 @@
         <v>17.8</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>4.9000000000000004</v>
       </c>
@@ -6614,7 +6630,7 @@
         <v>19.2</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>5.4</v>
       </c>
@@ -6651,7 +6667,7 @@
         <v>21.6</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>4.8</v>
       </c>
@@ -6688,7 +6704,7 @@
         <v>19.999999999999996</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>4.8</v>
       </c>
@@ -6725,7 +6741,7 @@
         <v>18.599999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>4.3</v>
       </c>
@@ -6762,7 +6778,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>5.8</v>
       </c>
@@ -6799,7 +6815,7 @@
         <v>22.4</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>5.7</v>
       </c>
@@ -6836,7 +6852,7 @@
         <v>24.000000000000004</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>5.4</v>
       </c>
@@ -6873,7 +6889,7 @@
         <v>22.000000000000004</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>5.0999999999999996</v>
       </c>
@@ -6910,7 +6926,7 @@
         <v>20.6</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>5.7</v>
       </c>
@@ -6947,7 +6963,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>5.0999999999999996</v>
       </c>
@@ -6984,7 +7000,7 @@
         <v>21.4</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>5.4</v>
       </c>
@@ -7021,7 +7037,7 @@
         <v>21.4</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>5.0999999999999996</v>
       </c>
@@ -7058,7 +7074,7 @@
         <v>21.400000000000002</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>4.5999999999999996</v>
       </c>
@@ -7095,7 +7111,7 @@
         <v>18.799999999999997</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>5.0999999999999996</v>
       </c>
@@ -7132,7 +7148,7 @@
         <v>21.199999999999996</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>4.8</v>
       </c>
@@ -7169,7 +7185,7 @@
         <v>20.599999999999998</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>5</v>
       </c>
@@ -7206,7 +7222,7 @@
         <v>19.599999999999998</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>5</v>
       </c>
@@ -7243,7 +7259,7 @@
         <v>20.8</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>5.2</v>
       </c>
@@ -7280,7 +7296,7 @@
         <v>20.799999999999997</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>5.2</v>
       </c>
@@ -7317,7 +7333,7 @@
         <v>20.399999999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>4.7</v>
       </c>
@@ -7354,7 +7370,7 @@
         <v>19.399999999999999</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>4.8</v>
       </c>
@@ -7391,7 +7407,7 @@
         <v>19.399999999999999</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>5.4</v>
       </c>
@@ -7428,7 +7444,7 @@
         <v>21.400000000000002</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>5.2</v>
       </c>
@@ -7465,7 +7481,7 @@
         <v>21.8</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>5.5</v>
       </c>
@@ -7502,7 +7518,7 @@
         <v>22.599999999999998</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>4.9000000000000004</v>
       </c>
@@ -7539,7 +7555,7 @@
         <v>19.2</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>5</v>
       </c>
@@ -7576,7 +7592,7 @@
         <v>19.199999999999996</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>5.5</v>
       </c>
@@ -7613,7 +7629,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>4.9000000000000004</v>
       </c>
@@ -7650,7 +7666,7 @@
         <v>19.2</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>4.4000000000000004</v>
       </c>
@@ -7687,7 +7703,7 @@
         <v>17.8</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>5.0999999999999996</v>
       </c>
@@ -7724,7 +7740,7 @@
         <v>20.399999999999999</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>5</v>
       </c>
@@ -7761,7 +7777,7 @@
         <v>20.200000000000003</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>4.5</v>
       </c>
@@ -7798,7 +7814,7 @@
         <v>16.8</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>4.4000000000000004</v>
       </c>
@@ -7835,7 +7851,7 @@
         <v>18.2</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>5</v>
       </c>
@@ -7872,7 +7888,7 @@
         <v>21.4</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>5.0999999999999996</v>
       </c>
@@ -7909,7 +7925,7 @@
         <v>22.4</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>4.8</v>
       </c>
@@ -7946,7 +7962,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>5.0999999999999996</v>
       </c>
@@ -7983,7 +7999,7 @@
         <v>21.399999999999995</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>4.5999999999999996</v>
       </c>
@@ -8020,7 +8036,7 @@
         <v>18.799999999999997</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>5.3</v>
       </c>
@@ -8057,7 +8073,7 @@
         <v>21.4</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>5</v>
       </c>
@@ -8094,7 +8110,7 @@
         <v>19.8</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>7</v>
       </c>
@@ -8123,7 +8139,7 @@
       <c r="J52" s="10">
         <v>147.38999999999999</v>
       </c>
-      <c r="L52" s="11" t="s">
+      <c r="L52" s="13" t="s">
         <v>156</v>
       </c>
       <c r="M52">
@@ -8131,7 +8147,7 @@
         <v>32.599999999999994</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>6.4</v>
       </c>
@@ -8160,7 +8176,7 @@
       <c r="J53" s="10">
         <v>138.24</v>
       </c>
-      <c r="L53" s="11" t="s">
+      <c r="L53" s="13" t="s">
         <v>156</v>
       </c>
       <c r="M53">
@@ -8168,7 +8184,7 @@
         <v>31.200000000000003</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>6.9</v>
       </c>
@@ -8205,7 +8221,7 @@
         <v>32.799999999999997</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>5.5</v>
       </c>
@@ -8234,7 +8250,7 @@
       <c r="J55" s="10">
         <v>65.78</v>
       </c>
-      <c r="L55" s="11" t="s">
+      <c r="L55" s="13" t="s">
         <v>156</v>
       </c>
       <c r="M55">
@@ -8242,7 +8258,7 @@
         <v>26.200000000000003</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>6.5</v>
       </c>
@@ -8271,7 +8287,7 @@
       <c r="J56" s="10">
         <v>125.58</v>
       </c>
-      <c r="L56" s="11" t="s">
+      <c r="L56" s="13" t="s">
         <v>156</v>
       </c>
       <c r="M56">
@@ -8279,7 +8295,7 @@
         <v>30.8</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>5.7</v>
       </c>
@@ -8308,7 +8324,7 @@
       <c r="J57" s="10">
         <v>93.37</v>
       </c>
-      <c r="L57" s="11" t="s">
+      <c r="L57" s="13" t="s">
         <v>156</v>
       </c>
       <c r="M57">
@@ -8316,7 +8332,7 @@
         <v>28.6</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>6.3</v>
       </c>
@@ -8353,7 +8369,7 @@
         <v>31.8</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>4.9000000000000004</v>
       </c>
@@ -8382,7 +8398,7 @@
       <c r="J59" s="10">
         <v>38.81</v>
       </c>
-      <c r="L59" s="11" t="s">
+      <c r="L59" s="13" t="s">
         <v>156</v>
       </c>
       <c r="M59">
@@ -8390,7 +8406,7 @@
         <v>23.200000000000003</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>6.6</v>
       </c>
@@ -8419,7 +8435,7 @@
       <c r="J60" s="10">
         <v>114.46</v>
       </c>
-      <c r="L60" s="11" t="s">
+      <c r="L60" s="13" t="s">
         <v>156</v>
       </c>
       <c r="M60">
@@ -8427,7 +8443,7 @@
         <v>30.8</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>5.2</v>
       </c>
@@ -8456,7 +8472,7 @@
       <c r="J61" s="10">
         <v>76.66</v>
       </c>
-      <c r="L61" s="11" t="s">
+      <c r="L61" s="13" t="s">
         <v>156</v>
       </c>
       <c r="M61">
@@ -8464,7 +8480,7 @@
         <v>26.400000000000002</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>5</v>
       </c>
@@ -8493,7 +8509,7 @@
       <c r="J62" s="10">
         <v>35</v>
       </c>
-      <c r="L62" s="11" t="s">
+      <c r="L62" s="13" t="s">
         <v>156</v>
       </c>
       <c r="M62">
@@ -8501,7 +8517,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>5.9</v>
       </c>
@@ -8530,7 +8546,7 @@
       <c r="J63" s="10">
         <v>111.51</v>
       </c>
-      <c r="L63" s="11" t="s">
+      <c r="L63" s="13" t="s">
         <v>156</v>
       </c>
       <c r="M63">
@@ -8538,7 +8554,7 @@
         <v>29.200000000000003</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>6</v>
       </c>
@@ -8567,7 +8583,7 @@
       <c r="J64" s="10">
         <v>52.8</v>
       </c>
-      <c r="L64" s="11" t="s">
+      <c r="L64" s="13" t="s">
         <v>156</v>
       </c>
       <c r="M64">
@@ -8575,7 +8591,7 @@
         <v>26.4</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>6.1</v>
       </c>
@@ -8604,7 +8620,7 @@
       <c r="J65" s="10">
         <v>116.4</v>
       </c>
-      <c r="L65" s="11" t="s">
+      <c r="L65" s="13" t="s">
         <v>156</v>
       </c>
       <c r="M65">
@@ -8612,7 +8628,7 @@
         <v>30.2</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>5.6</v>
       </c>
@@ -8641,7 +8657,7 @@
       <c r="J66" s="10">
         <v>76</v>
       </c>
-      <c r="L66" s="11" t="s">
+      <c r="L66" s="13" t="s">
         <v>156</v>
       </c>
       <c r="M66">
@@ -8649,7 +8665,7 @@
         <v>26.8</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>6.7</v>
       </c>
@@ -8678,7 +8694,7 @@
       <c r="J67" s="10">
         <v>127.94</v>
       </c>
-      <c r="L67" s="11" t="s">
+      <c r="L67" s="13" t="s">
         <v>156</v>
       </c>
       <c r="M67">
@@ -8686,7 +8702,7 @@
         <v>31.200000000000003</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>5.6</v>
       </c>
@@ -8715,7 +8731,7 @@
       <c r="J68" s="10">
         <v>113.4</v>
       </c>
-      <c r="L68" s="11" t="s">
+      <c r="L68" s="13" t="s">
         <v>156</v>
       </c>
       <c r="M68">
@@ -8723,7 +8739,7 @@
         <v>29.2</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>5.8</v>
       </c>
@@ -8752,7 +8768,7 @@
       <c r="J69" s="10">
         <v>64.209999999999994</v>
       </c>
-      <c r="L69" s="11" t="s">
+      <c r="L69" s="13" t="s">
         <v>156</v>
       </c>
       <c r="M69">
@@ -8760,7 +8776,7 @@
         <v>27.2</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>6.2</v>
       </c>
@@ -8789,7 +8805,7 @@
       <c r="J70" s="10">
         <v>92.07</v>
       </c>
-      <c r="L70" s="11" t="s">
+      <c r="L70" s="13" t="s">
         <v>156</v>
       </c>
       <c r="M70">
@@ -8797,7 +8813,7 @@
         <v>28.8</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>5.6</v>
       </c>
@@ -8826,7 +8842,7 @@
       <c r="J71" s="10">
         <v>60.06</v>
       </c>
-      <c r="L71" s="11" t="s">
+      <c r="L71" s="13" t="s">
         <v>156</v>
       </c>
       <c r="M71">
@@ -8834,7 +8850,7 @@
         <v>26.2</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>5.9</v>
       </c>
@@ -8871,7 +8887,7 @@
         <v>31.400000000000006</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>6.1</v>
       </c>
@@ -8900,7 +8916,7 @@
       <c r="J73" s="10">
         <v>88.82</v>
       </c>
-      <c r="L73" s="11" t="s">
+      <c r="L73" s="13" t="s">
         <v>156</v>
       </c>
       <c r="M73">
@@ -8908,7 +8924,7 @@
         <v>28.4</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>6.3</v>
       </c>
@@ -8945,7 +8961,7 @@
         <v>30.400000000000002</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>6.1</v>
       </c>
@@ -8974,7 +8990,7 @@
       <c r="J75" s="10">
         <v>96.33</v>
       </c>
-      <c r="L75" s="11" t="s">
+      <c r="L75" s="13" t="s">
         <v>156</v>
       </c>
       <c r="M75">
@@ -8982,7 +8998,7 @@
         <v>29.599999999999994</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>6.4</v>
       </c>
@@ -9011,7 +9027,7 @@
       <c r="J76" s="10">
         <v>103.75</v>
       </c>
-      <c r="L76" s="11" t="s">
+      <c r="L76" s="13" t="s">
         <v>156</v>
       </c>
       <c r="M76">
@@ -9019,7 +9035,7 @@
         <v>29.800000000000004</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>6.6</v>
       </c>
@@ -9048,7 +9064,7 @@
       <c r="J77" s="10">
         <v>121.97</v>
       </c>
-      <c r="L77" s="11" t="s">
+      <c r="L77" s="13" t="s">
         <v>156</v>
       </c>
       <c r="M77">
@@ -9056,7 +9072,7 @@
         <v>30.8</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>6.8</v>
       </c>
@@ -9085,7 +9101,7 @@
       <c r="J78" s="10">
         <v>127.95</v>
       </c>
-      <c r="L78" s="11" t="s">
+      <c r="L78" s="13" t="s">
         <v>156</v>
       </c>
       <c r="M78">
@@ -9093,7 +9109,7 @@
         <v>31.599999999999998</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>6.7</v>
       </c>
@@ -9130,7 +9146,7 @@
         <v>32.799999999999997</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>6</v>
       </c>
@@ -9159,7 +9175,7 @@
       <c r="J80" s="10">
         <v>117.45</v>
       </c>
-      <c r="L80" s="11" t="s">
+      <c r="L80" s="13" t="s">
         <v>156</v>
       </c>
       <c r="M80">
@@ -9167,7 +9183,7 @@
         <v>29.8</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>5.7</v>
       </c>
@@ -9196,7 +9212,7 @@
       <c r="J81" s="10">
         <v>51.87</v>
       </c>
-      <c r="L81" s="11" t="s">
+      <c r="L81" s="13" t="s">
         <v>156</v>
       </c>
       <c r="M81">
@@ -9204,7 +9220,7 @@
         <v>25.6</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>5.5</v>
       </c>
@@ -9233,7 +9249,7 @@
       <c r="J82" s="10">
         <v>55.18</v>
       </c>
-      <c r="L82" s="11" t="s">
+      <c r="L82" s="13" t="s">
         <v>156</v>
       </c>
       <c r="M82">
@@ -9241,7 +9257,7 @@
         <v>25.599999999999998</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>5.5</v>
       </c>
@@ -9270,7 +9286,7 @@
       <c r="J83" s="10">
         <v>48.84</v>
       </c>
-      <c r="L83" s="11" t="s">
+      <c r="L83" s="13" t="s">
         <v>156</v>
       </c>
       <c r="M83">
@@ -9278,7 +9294,7 @@
         <v>25.200000000000003</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>5.8</v>
       </c>
@@ -9307,7 +9323,7 @@
       <c r="J84" s="10">
         <v>73.290000000000006</v>
       </c>
-      <c r="L84" s="11" t="s">
+      <c r="L84" s="13" t="s">
         <v>156</v>
       </c>
       <c r="M84">
@@ -9315,7 +9331,7 @@
         <v>27.2</v>
       </c>
     </row>
-    <row r="85" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:13" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="11">
         <v>6</v>
       </c>
@@ -9352,7 +9368,7 @@
         <v>30.799999999999997</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>5.4</v>
       </c>
@@ -9381,7 +9397,7 @@
       <c r="J86" s="10">
         <v>109.35</v>
       </c>
-      <c r="L86" s="11" t="s">
+      <c r="L86" s="13" t="s">
         <v>156</v>
       </c>
       <c r="M86">
@@ -9389,7 +9405,7 @@
         <v>28.8</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>6</v>
       </c>
@@ -9426,7 +9442,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>6.7</v>
       </c>
@@ -9463,7 +9479,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>6.3</v>
       </c>
@@ -9492,7 +9508,7 @@
       <c r="J89" s="10">
         <v>82.88</v>
       </c>
-      <c r="L89" s="11" t="s">
+      <c r="L89" s="13" t="s">
         <v>156</v>
       </c>
       <c r="M89">
@@ -9500,7 +9516,7 @@
         <v>28.6</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>5.6</v>
       </c>
@@ -9529,7 +9545,7 @@
       <c r="J90" s="10">
         <v>89.54</v>
       </c>
-      <c r="L90" s="11" t="s">
+      <c r="L90" s="13" t="s">
         <v>156</v>
       </c>
       <c r="M90">
@@ -9537,7 +9553,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>5.5</v>
       </c>
@@ -9566,7 +9582,7 @@
       <c r="J91" s="10">
         <v>71.5</v>
       </c>
-      <c r="L91" s="11" t="s">
+      <c r="L91" s="13" t="s">
         <v>156</v>
       </c>
       <c r="M91">
@@ -9574,7 +9590,7 @@
         <v>26.6</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>5.5</v>
       </c>
@@ -9603,7 +9619,7 @@
       <c r="J92" s="10">
         <v>75.5</v>
       </c>
-      <c r="L92" s="11" t="s">
+      <c r="L92" s="13" t="s">
         <v>156</v>
       </c>
       <c r="M92">
@@ -9611,7 +9627,7 @@
         <v>27.4</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>6.1</v>
       </c>
@@ -9640,7 +9656,7 @@
       <c r="J93" s="10">
         <v>117.85</v>
       </c>
-      <c r="L93" s="11" t="s">
+      <c r="L93" s="13" t="s">
         <v>156</v>
       </c>
       <c r="M93">
@@ -9648,7 +9664,7 @@
         <v>30.2</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>5.8</v>
       </c>
@@ -9677,7 +9693,7 @@
       <c r="J94" s="10">
         <v>72.38</v>
       </c>
-      <c r="L94" s="11" t="s">
+      <c r="L94" s="13" t="s">
         <v>156</v>
       </c>
       <c r="M94">
@@ -9685,7 +9701,7 @@
         <v>27.2</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>5</v>
       </c>
@@ -9714,7 +9730,7 @@
       <c r="J95" s="10">
         <v>37.950000000000003</v>
       </c>
-      <c r="L95" s="11" t="s">
+      <c r="L95" s="13" t="s">
         <v>156</v>
       </c>
       <c r="M95">
@@ -9722,7 +9738,7 @@
         <v>23.2</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>5.6</v>
       </c>
@@ -9751,7 +9767,7 @@
       <c r="J96" s="10">
         <v>82.56</v>
       </c>
-      <c r="L96" s="11" t="s">
+      <c r="L96" s="13" t="s">
         <v>156</v>
       </c>
       <c r="M96">
@@ -9759,7 +9775,7 @@
         <v>27.6</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>5.7</v>
       </c>
@@ -9788,7 +9804,7 @@
       <c r="J97" s="10">
         <v>86.18</v>
       </c>
-      <c r="L97" s="11" t="s">
+      <c r="L97" s="13" t="s">
         <v>156</v>
       </c>
       <c r="M97">
@@ -9796,7 +9812,7 @@
         <v>28.199999999999996</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>5.7</v>
       </c>
@@ -9825,7 +9841,7 @@
       <c r="J98" s="10">
         <v>90.25</v>
       </c>
-      <c r="L98" s="11" t="s">
+      <c r="L98" s="13" t="s">
         <v>156</v>
       </c>
       <c r="M98">
@@ -9833,7 +9849,7 @@
         <v>28.200000000000003</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>6.2</v>
       </c>
@@ -9862,7 +9878,7 @@
       <c r="J99" s="10">
         <v>100.51</v>
       </c>
-      <c r="L99" s="11" t="s">
+      <c r="L99" s="13" t="s">
         <v>156</v>
       </c>
       <c r="M99">
@@ -9870,7 +9886,7 @@
         <v>29.4</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>5.0999999999999996</v>
       </c>
@@ -9899,7 +9915,7 @@
       <c r="J100" s="10">
         <v>42.08</v>
       </c>
-      <c r="L100" s="11" t="s">
+      <c r="L100" s="13" t="s">
         <v>156</v>
       </c>
       <c r="M100">
@@ -9907,7 +9923,7 @@
         <v>23.4</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>5.7</v>
       </c>
@@ -9936,7 +9952,7 @@
       <c r="J101" s="10">
         <v>85.07</v>
       </c>
-      <c r="L101" s="11" t="s">
+      <c r="L101" s="13" t="s">
         <v>156</v>
       </c>
       <c r="M101">
@@ -9944,7 +9960,7 @@
         <v>27.8</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>6.3</v>
       </c>
@@ -9981,7 +9997,7 @@
         <v>36.200000000000003</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>5.8</v>
       </c>
@@ -10018,7 +10034,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>7.1</v>
       </c>
@@ -10055,7 +10071,7 @@
         <v>36.200000000000003</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>6.3</v>
       </c>
@@ -10092,7 +10108,7 @@
         <v>33.199999999999996</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>6.5</v>
       </c>
@@ -10129,7 +10145,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>7.6</v>
       </c>
@@ -10195,7 +10211,7 @@
       <c r="J108" s="10">
         <v>93.71</v>
       </c>
-      <c r="L108" s="12" t="s">
+      <c r="L108" s="14" t="s">
         <v>157</v>
       </c>
       <c r="M108">
@@ -10203,7 +10219,7 @@
         <v>27.2</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>7.3</v>
       </c>
@@ -10240,7 +10256,7 @@
         <v>36.6</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>6.7</v>
       </c>
@@ -10277,7 +10293,7 @@
         <v>33.6</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>7.2</v>
       </c>
@@ -10314,7 +10330,7 @@
         <v>38.799999999999997</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>6.5</v>
       </c>
@@ -10351,7 +10367,7 @@
         <v>33.599999999999994</v>
       </c>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>6.4</v>
       </c>
@@ -10388,7 +10404,7 @@
         <v>32.6</v>
       </c>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>6.8</v>
       </c>
@@ -10425,7 +10441,7 @@
         <v>34.800000000000004</v>
       </c>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>5.7</v>
       </c>
@@ -10462,7 +10478,7 @@
         <v>30.4</v>
       </c>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>5.8</v>
       </c>
@@ -10499,7 +10515,7 @@
         <v>32.199999999999996</v>
       </c>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>6.4</v>
       </c>
@@ -10536,7 +10552,7 @@
         <v>34.400000000000006</v>
       </c>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>6.5</v>
       </c>
@@ -10573,7 +10589,7 @@
         <v>33.6</v>
       </c>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>7.7</v>
       </c>
@@ -10610,7 +10626,7 @@
         <v>40.799999999999997</v>
       </c>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>7.7</v>
       </c>
@@ -10676,7 +10692,7 @@
       <c r="J121" s="10">
         <v>99</v>
       </c>
-      <c r="L121" s="12" t="s">
+      <c r="L121" s="14" t="s">
         <v>157</v>
       </c>
       <c r="M121">
@@ -10684,7 +10700,7 @@
         <v>29.4</v>
       </c>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>6.9</v>
       </c>
@@ -10721,7 +10737,7 @@
         <v>36.200000000000003</v>
       </c>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>5.6</v>
       </c>
@@ -10758,7 +10774,7 @@
         <v>30.599999999999998</v>
       </c>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>7.7</v>
       </c>
@@ -10824,7 +10840,7 @@
       <c r="J125" s="10">
         <v>150.03</v>
       </c>
-      <c r="L125" s="12" t="s">
+      <c r="L125" s="14" t="s">
         <v>157</v>
       </c>
       <c r="M125">
@@ -10832,7 +10848,7 @@
         <v>31.400000000000002</v>
       </c>
     </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>6.7</v>
       </c>
@@ -10869,7 +10885,7 @@
         <v>35.6</v>
       </c>
     </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>7.2</v>
       </c>
@@ -10935,7 +10951,7 @@
       <c r="J128" s="10">
         <v>149.99</v>
       </c>
-      <c r="L128" s="12" t="s">
+      <c r="L128" s="14" t="s">
         <v>157</v>
       </c>
       <c r="M128">
@@ -10972,7 +10988,7 @@
       <c r="J129" s="10">
         <v>161.41</v>
       </c>
-      <c r="L129" s="12" t="s">
+      <c r="L129" s="14" t="s">
         <v>157</v>
       </c>
       <c r="M129">
@@ -10980,7 +10996,7 @@
         <v>31.6</v>
       </c>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>6.4</v>
       </c>
@@ -11017,7 +11033,7 @@
         <v>33.799999999999997</v>
       </c>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>7.2</v>
       </c>
@@ -11054,7 +11070,7 @@
         <v>35.200000000000003</v>
       </c>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>7.4</v>
       </c>
@@ -11091,7 +11107,7 @@
         <v>36.399999999999991</v>
       </c>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>7.9</v>
       </c>
@@ -11128,7 +11144,7 @@
         <v>40.200000000000003</v>
       </c>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>6.4</v>
       </c>
@@ -11194,7 +11210,7 @@
       <c r="J135" s="10">
         <v>134.94999999999999</v>
       </c>
-      <c r="L135" s="12" t="s">
+      <c r="L135" s="14" t="s">
         <v>157</v>
       </c>
       <c r="M135">
@@ -11231,7 +11247,7 @@
       <c r="J136" s="10">
         <v>124.34</v>
       </c>
-      <c r="L136" s="12" t="s">
+      <c r="L136" s="14" t="s">
         <v>157</v>
       </c>
       <c r="M136">
@@ -11239,7 +11255,7 @@
         <v>31.4</v>
       </c>
     </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>7.7</v>
       </c>
@@ -11276,7 +11292,7 @@
         <v>38.199999999999996</v>
       </c>
     </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>6.3</v>
       </c>
@@ -11313,7 +11329,7 @@
         <v>35.4</v>
       </c>
     </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>6.4</v>
       </c>
@@ -11379,7 +11395,7 @@
       <c r="J140" s="10">
         <v>155.52000000000001</v>
       </c>
-      <c r="L140" s="12" t="s">
+      <c r="L140" s="14" t="s">
         <v>157</v>
       </c>
       <c r="M140">
@@ -11387,7 +11403,7 @@
         <v>31.200000000000003</v>
       </c>
     </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>6.9</v>
       </c>
@@ -11424,7 +11440,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>6.7</v>
       </c>
@@ -11461,7 +11477,7 @@
         <v>35.6</v>
       </c>
     </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>6.9</v>
       </c>
@@ -11498,7 +11514,7 @@
         <v>34.799999999999997</v>
       </c>
     </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>5.8</v>
       </c>
@@ -11535,7 +11551,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>6.8</v>
       </c>
@@ -11572,7 +11588,7 @@
         <v>36.4</v>
       </c>
     </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>6.7</v>
       </c>
@@ -11609,7 +11625,7 @@
         <v>36.4</v>
       </c>
     </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>6.7</v>
       </c>
@@ -11646,7 +11662,7 @@
         <v>34.4</v>
       </c>
     </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>6.3</v>
       </c>
@@ -11683,7 +11699,7 @@
         <v>31.400000000000002</v>
       </c>
     </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>6.5</v>
       </c>
@@ -11720,7 +11736,7 @@
         <v>33.4</v>
       </c>
     </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>6.2</v>
       </c>
@@ -11757,7 +11773,7 @@
         <v>34.6</v>
       </c>
     </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>5.9</v>
       </c>
@@ -11795,6 +11811,36 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:M151">
+    <filterColumn colId="7">
+      <filters>
+        <filter val="7.5"/>
+        <filter val="7.65"/>
+        <filter val="7.84"/>
+        <filter val="8.64"/>
+        <filter val="8.82"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="11">
+      <filters>
+        <filter val="Iris-virginica"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="12">
+      <filters>
+        <filter val="27.2"/>
+        <filter val="29.4"/>
+        <filter val="30.4"/>
+        <filter val="30.6"/>
+        <filter val="31"/>
+        <filter val="31.2"/>
+        <filter val="31.4"/>
+        <filter val="31.6"/>
+        <filter val="32.2"/>
+        <filter val="32.6"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Data/DataAnalysis.xlsx
+++ b/Data/DataAnalysis.xlsx
@@ -6213,11 +6213,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:M151"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L108" sqref="L108:L140"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6260,7 +6259,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="2" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>5.0999999999999996</v>
       </c>
@@ -6297,7 +6296,7 @@
         <v>20.399999999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>4.9000000000000004</v>
       </c>
@@ -6334,7 +6333,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>4.7</v>
       </c>
@@ -6371,7 +6370,7 @@
         <v>18.8</v>
       </c>
     </row>
-    <row r="5" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4.5999999999999996</v>
       </c>
@@ -6408,7 +6407,7 @@
         <v>18.799999999999997</v>
       </c>
     </row>
-    <row r="6" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -6445,7 +6444,7 @@
         <v>20.399999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5.4</v>
       </c>
@@ -6482,7 +6481,7 @@
         <v>22.8</v>
       </c>
     </row>
-    <row r="8" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>4.5999999999999996</v>
       </c>
@@ -6519,7 +6518,7 @@
         <v>19.400000000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>5</v>
       </c>
@@ -6556,7 +6555,7 @@
         <v>20.2</v>
       </c>
     </row>
-    <row r="10" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>4.4000000000000004</v>
       </c>
@@ -6593,7 +6592,7 @@
         <v>17.8</v>
       </c>
     </row>
-    <row r="11" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>4.9000000000000004</v>
       </c>
@@ -6630,7 +6629,7 @@
         <v>19.2</v>
       </c>
     </row>
-    <row r="12" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>5.4</v>
       </c>
@@ -6667,7 +6666,7 @@
         <v>21.6</v>
       </c>
     </row>
-    <row r="13" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>4.8</v>
       </c>
@@ -6704,7 +6703,7 @@
         <v>19.999999999999996</v>
       </c>
     </row>
-    <row r="14" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>4.8</v>
       </c>
@@ -6741,7 +6740,7 @@
         <v>18.599999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>4.3</v>
       </c>
@@ -6778,7 +6777,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>5.8</v>
       </c>
@@ -6815,7 +6814,7 @@
         <v>22.4</v>
       </c>
     </row>
-    <row r="17" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>5.7</v>
       </c>
@@ -6852,7 +6851,7 @@
         <v>24.000000000000004</v>
       </c>
     </row>
-    <row r="18" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>5.4</v>
       </c>
@@ -6889,7 +6888,7 @@
         <v>22.000000000000004</v>
       </c>
     </row>
-    <row r="19" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>5.0999999999999996</v>
       </c>
@@ -6926,7 +6925,7 @@
         <v>20.6</v>
       </c>
     </row>
-    <row r="20" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>5.7</v>
       </c>
@@ -6963,7 +6962,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>5.0999999999999996</v>
       </c>
@@ -7000,7 +6999,7 @@
         <v>21.4</v>
       </c>
     </row>
-    <row r="22" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>5.4</v>
       </c>
@@ -7037,7 +7036,7 @@
         <v>21.4</v>
       </c>
     </row>
-    <row r="23" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>5.0999999999999996</v>
       </c>
@@ -7074,7 +7073,7 @@
         <v>21.400000000000002</v>
       </c>
     </row>
-    <row r="24" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>4.5999999999999996</v>
       </c>
@@ -7111,7 +7110,7 @@
         <v>18.799999999999997</v>
       </c>
     </row>
-    <row r="25" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>5.0999999999999996</v>
       </c>
@@ -7148,7 +7147,7 @@
         <v>21.199999999999996</v>
       </c>
     </row>
-    <row r="26" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>4.8</v>
       </c>
@@ -7185,7 +7184,7 @@
         <v>20.599999999999998</v>
       </c>
     </row>
-    <row r="27" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>5</v>
       </c>
@@ -7222,7 +7221,7 @@
         <v>19.599999999999998</v>
       </c>
     </row>
-    <row r="28" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>5</v>
       </c>
@@ -7259,7 +7258,7 @@
         <v>20.8</v>
       </c>
     </row>
-    <row r="29" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>5.2</v>
       </c>
@@ -7296,7 +7295,7 @@
         <v>20.799999999999997</v>
       </c>
     </row>
-    <row r="30" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>5.2</v>
       </c>
@@ -7333,7 +7332,7 @@
         <v>20.399999999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>4.7</v>
       </c>
@@ -7370,7 +7369,7 @@
         <v>19.399999999999999</v>
       </c>
     </row>
-    <row r="32" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>4.8</v>
       </c>
@@ -7407,7 +7406,7 @@
         <v>19.399999999999999</v>
       </c>
     </row>
-    <row r="33" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>5.4</v>
       </c>
@@ -7444,7 +7443,7 @@
         <v>21.400000000000002</v>
       </c>
     </row>
-    <row r="34" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>5.2</v>
       </c>
@@ -7481,7 +7480,7 @@
         <v>21.8</v>
       </c>
     </row>
-    <row r="35" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>5.5</v>
       </c>
@@ -7518,7 +7517,7 @@
         <v>22.599999999999998</v>
       </c>
     </row>
-    <row r="36" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>4.9000000000000004</v>
       </c>
@@ -7555,7 +7554,7 @@
         <v>19.2</v>
       </c>
     </row>
-    <row r="37" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>5</v>
       </c>
@@ -7592,7 +7591,7 @@
         <v>19.199999999999996</v>
       </c>
     </row>
-    <row r="38" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>5.5</v>
       </c>
@@ -7629,7 +7628,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="39" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>4.9000000000000004</v>
       </c>
@@ -7666,7 +7665,7 @@
         <v>19.2</v>
       </c>
     </row>
-    <row r="40" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>4.4000000000000004</v>
       </c>
@@ -7703,7 +7702,7 @@
         <v>17.8</v>
       </c>
     </row>
-    <row r="41" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>5.0999999999999996</v>
       </c>
@@ -7740,7 +7739,7 @@
         <v>20.399999999999999</v>
       </c>
     </row>
-    <row r="42" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>5</v>
       </c>
@@ -7777,7 +7776,7 @@
         <v>20.200000000000003</v>
       </c>
     </row>
-    <row r="43" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>4.5</v>
       </c>
@@ -7814,7 +7813,7 @@
         <v>16.8</v>
       </c>
     </row>
-    <row r="44" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>4.4000000000000004</v>
       </c>
@@ -7851,7 +7850,7 @@
         <v>18.2</v>
       </c>
     </row>
-    <row r="45" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>5</v>
       </c>
@@ -7888,7 +7887,7 @@
         <v>21.4</v>
       </c>
     </row>
-    <row r="46" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>5.0999999999999996</v>
       </c>
@@ -7925,7 +7924,7 @@
         <v>22.4</v>
       </c>
     </row>
-    <row r="47" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>4.8</v>
       </c>
@@ -7962,7 +7961,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="48" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>5.0999999999999996</v>
       </c>
@@ -7999,7 +7998,7 @@
         <v>21.399999999999995</v>
       </c>
     </row>
-    <row r="49" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>4.5999999999999996</v>
       </c>
@@ -8036,7 +8035,7 @@
         <v>18.799999999999997</v>
       </c>
     </row>
-    <row r="50" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>5.3</v>
       </c>
@@ -8073,7 +8072,7 @@
         <v>21.4</v>
       </c>
     </row>
-    <row r="51" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>5</v>
       </c>
@@ -8110,7 +8109,7 @@
         <v>19.8</v>
       </c>
     </row>
-    <row r="52" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>7</v>
       </c>
@@ -8147,7 +8146,7 @@
         <v>32.599999999999994</v>
       </c>
     </row>
-    <row r="53" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>6.4</v>
       </c>
@@ -8184,7 +8183,7 @@
         <v>31.200000000000003</v>
       </c>
     </row>
-    <row r="54" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>6.9</v>
       </c>
@@ -8221,7 +8220,7 @@
         <v>32.799999999999997</v>
       </c>
     </row>
-    <row r="55" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>5.5</v>
       </c>
@@ -8258,7 +8257,7 @@
         <v>26.200000000000003</v>
       </c>
     </row>
-    <row r="56" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>6.5</v>
       </c>
@@ -8295,7 +8294,7 @@
         <v>30.8</v>
       </c>
     </row>
-    <row r="57" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>5.7</v>
       </c>
@@ -8332,7 +8331,7 @@
         <v>28.6</v>
       </c>
     </row>
-    <row r="58" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>6.3</v>
       </c>
@@ -8369,7 +8368,7 @@
         <v>31.8</v>
       </c>
     </row>
-    <row r="59" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>4.9000000000000004</v>
       </c>
@@ -8406,7 +8405,7 @@
         <v>23.200000000000003</v>
       </c>
     </row>
-    <row r="60" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>6.6</v>
       </c>
@@ -8443,7 +8442,7 @@
         <v>30.8</v>
       </c>
     </row>
-    <row r="61" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>5.2</v>
       </c>
@@ -8480,7 +8479,7 @@
         <v>26.400000000000002</v>
       </c>
     </row>
-    <row r="62" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>5</v>
       </c>
@@ -8517,7 +8516,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="63" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>5.9</v>
       </c>
@@ -8554,7 +8553,7 @@
         <v>29.200000000000003</v>
       </c>
     </row>
-    <row r="64" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>6</v>
       </c>
@@ -8591,7 +8590,7 @@
         <v>26.4</v>
       </c>
     </row>
-    <row r="65" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>6.1</v>
       </c>
@@ -8628,7 +8627,7 @@
         <v>30.2</v>
       </c>
     </row>
-    <row r="66" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>5.6</v>
       </c>
@@ -8665,7 +8664,7 @@
         <v>26.8</v>
       </c>
     </row>
-    <row r="67" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>6.7</v>
       </c>
@@ -8702,7 +8701,7 @@
         <v>31.200000000000003</v>
       </c>
     </row>
-    <row r="68" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>5.6</v>
       </c>
@@ -8739,7 +8738,7 @@
         <v>29.2</v>
       </c>
     </row>
-    <row r="69" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>5.8</v>
       </c>
@@ -8776,7 +8775,7 @@
         <v>27.2</v>
       </c>
     </row>
-    <row r="70" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>6.2</v>
       </c>
@@ -8813,7 +8812,7 @@
         <v>28.8</v>
       </c>
     </row>
-    <row r="71" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>5.6</v>
       </c>
@@ -8850,7 +8849,7 @@
         <v>26.2</v>
       </c>
     </row>
-    <row r="72" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>5.9</v>
       </c>
@@ -8887,7 +8886,7 @@
         <v>31.400000000000006</v>
       </c>
     </row>
-    <row r="73" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>6.1</v>
       </c>
@@ -8924,7 +8923,7 @@
         <v>28.4</v>
       </c>
     </row>
-    <row r="74" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>6.3</v>
       </c>
@@ -8961,7 +8960,7 @@
         <v>30.400000000000002</v>
       </c>
     </row>
-    <row r="75" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>6.1</v>
       </c>
@@ -8998,7 +8997,7 @@
         <v>29.599999999999994</v>
       </c>
     </row>
-    <row r="76" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>6.4</v>
       </c>
@@ -9035,7 +9034,7 @@
         <v>29.800000000000004</v>
       </c>
     </row>
-    <row r="77" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>6.6</v>
       </c>
@@ -9072,7 +9071,7 @@
         <v>30.8</v>
       </c>
     </row>
-    <row r="78" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>6.8</v>
       </c>
@@ -9109,7 +9108,7 @@
         <v>31.599999999999998</v>
       </c>
     </row>
-    <row r="79" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>6.7</v>
       </c>
@@ -9146,7 +9145,7 @@
         <v>32.799999999999997</v>
       </c>
     </row>
-    <row r="80" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>6</v>
       </c>
@@ -9183,7 +9182,7 @@
         <v>29.8</v>
       </c>
     </row>
-    <row r="81" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>5.7</v>
       </c>
@@ -9220,7 +9219,7 @@
         <v>25.6</v>
       </c>
     </row>
-    <row r="82" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>5.5</v>
       </c>
@@ -9257,7 +9256,7 @@
         <v>25.599999999999998</v>
       </c>
     </row>
-    <row r="83" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>5.5</v>
       </c>
@@ -9294,7 +9293,7 @@
         <v>25.200000000000003</v>
       </c>
     </row>
-    <row r="84" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>5.8</v>
       </c>
@@ -9331,7 +9330,7 @@
         <v>27.2</v>
       </c>
     </row>
-    <row r="85" spans="1:13" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="11">
         <v>6</v>
       </c>
@@ -9368,7 +9367,7 @@
         <v>30.799999999999997</v>
       </c>
     </row>
-    <row r="86" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>5.4</v>
       </c>
@@ -9405,7 +9404,7 @@
         <v>28.8</v>
       </c>
     </row>
-    <row r="87" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>6</v>
       </c>
@@ -9442,7 +9441,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="88" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>6.7</v>
       </c>
@@ -9479,7 +9478,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="89" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>6.3</v>
       </c>
@@ -9516,7 +9515,7 @@
         <v>28.6</v>
       </c>
     </row>
-    <row r="90" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>5.6</v>
       </c>
@@ -9553,7 +9552,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="91" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>5.5</v>
       </c>
@@ -9590,7 +9589,7 @@
         <v>26.6</v>
       </c>
     </row>
-    <row r="92" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>5.5</v>
       </c>
@@ -9627,7 +9626,7 @@
         <v>27.4</v>
       </c>
     </row>
-    <row r="93" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>6.1</v>
       </c>
@@ -9664,7 +9663,7 @@
         <v>30.2</v>
       </c>
     </row>
-    <row r="94" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>5.8</v>
       </c>
@@ -9701,7 +9700,7 @@
         <v>27.2</v>
       </c>
     </row>
-    <row r="95" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>5</v>
       </c>
@@ -9738,7 +9737,7 @@
         <v>23.2</v>
       </c>
     </row>
-    <row r="96" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>5.6</v>
       </c>
@@ -9775,7 +9774,7 @@
         <v>27.6</v>
       </c>
     </row>
-    <row r="97" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>5.7</v>
       </c>
@@ -9812,7 +9811,7 @@
         <v>28.199999999999996</v>
       </c>
     </row>
-    <row r="98" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>5.7</v>
       </c>
@@ -9849,7 +9848,7 @@
         <v>28.200000000000003</v>
       </c>
     </row>
-    <row r="99" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>6.2</v>
       </c>
@@ -9886,7 +9885,7 @@
         <v>29.4</v>
       </c>
     </row>
-    <row r="100" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>5.0999999999999996</v>
       </c>
@@ -9923,7 +9922,7 @@
         <v>23.4</v>
       </c>
     </row>
-    <row r="101" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>5.7</v>
       </c>
@@ -9960,7 +9959,7 @@
         <v>27.8</v>
       </c>
     </row>
-    <row r="102" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>6.3</v>
       </c>
@@ -9997,7 +9996,7 @@
         <v>36.200000000000003</v>
       </c>
     </row>
-    <row r="103" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>5.8</v>
       </c>
@@ -10034,7 +10033,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="104" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>7.1</v>
       </c>
@@ -10071,7 +10070,7 @@
         <v>36.200000000000003</v>
       </c>
     </row>
-    <row r="105" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>6.3</v>
       </c>
@@ -10108,7 +10107,7 @@
         <v>33.199999999999996</v>
       </c>
     </row>
-    <row r="106" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>6.5</v>
       </c>
@@ -10145,7 +10144,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="107" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>7.6</v>
       </c>
@@ -10219,7 +10218,7 @@
         <v>27.2</v>
       </c>
     </row>
-    <row r="109" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>7.3</v>
       </c>
@@ -10256,7 +10255,7 @@
         <v>36.6</v>
       </c>
     </row>
-    <row r="110" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>6.7</v>
       </c>
@@ -10293,7 +10292,7 @@
         <v>33.6</v>
       </c>
     </row>
-    <row r="111" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>7.2</v>
       </c>
@@ -10330,7 +10329,7 @@
         <v>38.799999999999997</v>
       </c>
     </row>
-    <row r="112" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>6.5</v>
       </c>
@@ -10367,7 +10366,7 @@
         <v>33.599999999999994</v>
       </c>
     </row>
-    <row r="113" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>6.4</v>
       </c>
@@ -10404,7 +10403,7 @@
         <v>32.6</v>
       </c>
     </row>
-    <row r="114" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>6.8</v>
       </c>
@@ -10441,7 +10440,7 @@
         <v>34.800000000000004</v>
       </c>
     </row>
-    <row r="115" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>5.7</v>
       </c>
@@ -10478,7 +10477,7 @@
         <v>30.4</v>
       </c>
     </row>
-    <row r="116" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>5.8</v>
       </c>
@@ -10515,7 +10514,7 @@
         <v>32.199999999999996</v>
       </c>
     </row>
-    <row r="117" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>6.4</v>
       </c>
@@ -10552,7 +10551,7 @@
         <v>34.400000000000006</v>
       </c>
     </row>
-    <row r="118" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>6.5</v>
       </c>
@@ -10589,7 +10588,7 @@
         <v>33.6</v>
       </c>
     </row>
-    <row r="119" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>7.7</v>
       </c>
@@ -10626,7 +10625,7 @@
         <v>40.799999999999997</v>
       </c>
     </row>
-    <row r="120" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>7.7</v>
       </c>
@@ -10700,7 +10699,7 @@
         <v>29.4</v>
       </c>
     </row>
-    <row r="122" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>6.9</v>
       </c>
@@ -10737,7 +10736,7 @@
         <v>36.200000000000003</v>
       </c>
     </row>
-    <row r="123" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>5.6</v>
       </c>
@@ -10774,7 +10773,7 @@
         <v>30.599999999999998</v>
       </c>
     </row>
-    <row r="124" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>7.7</v>
       </c>
@@ -10848,7 +10847,7 @@
         <v>31.400000000000002</v>
       </c>
     </row>
-    <row r="126" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>6.7</v>
       </c>
@@ -10885,7 +10884,7 @@
         <v>35.6</v>
       </c>
     </row>
-    <row r="127" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>7.2</v>
       </c>
@@ -10996,7 +10995,7 @@
         <v>31.6</v>
       </c>
     </row>
-    <row r="130" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>6.4</v>
       </c>
@@ -11033,7 +11032,7 @@
         <v>33.799999999999997</v>
       </c>
     </row>
-    <row r="131" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>7.2</v>
       </c>
@@ -11070,7 +11069,7 @@
         <v>35.200000000000003</v>
       </c>
     </row>
-    <row r="132" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>7.4</v>
       </c>
@@ -11107,7 +11106,7 @@
         <v>36.399999999999991</v>
       </c>
     </row>
-    <row r="133" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>7.9</v>
       </c>
@@ -11144,7 +11143,7 @@
         <v>40.200000000000003</v>
       </c>
     </row>
-    <row r="134" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>6.4</v>
       </c>
@@ -11255,7 +11254,7 @@
         <v>31.4</v>
       </c>
     </row>
-    <row r="137" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>7.7</v>
       </c>
@@ -11292,7 +11291,7 @@
         <v>38.199999999999996</v>
       </c>
     </row>
-    <row r="138" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>6.3</v>
       </c>
@@ -11329,7 +11328,7 @@
         <v>35.4</v>
       </c>
     </row>
-    <row r="139" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>6.4</v>
       </c>
@@ -11403,7 +11402,7 @@
         <v>31.200000000000003</v>
       </c>
     </row>
-    <row r="141" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>6.9</v>
       </c>
@@ -11440,7 +11439,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="142" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>6.7</v>
       </c>
@@ -11477,7 +11476,7 @@
         <v>35.6</v>
       </c>
     </row>
-    <row r="143" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>6.9</v>
       </c>
@@ -11514,7 +11513,7 @@
         <v>34.799999999999997</v>
       </c>
     </row>
-    <row r="144" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>5.8</v>
       </c>
@@ -11551,7 +11550,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="145" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>6.8</v>
       </c>
@@ -11588,7 +11587,7 @@
         <v>36.4</v>
       </c>
     </row>
-    <row r="146" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>6.7</v>
       </c>
@@ -11625,7 +11624,7 @@
         <v>36.4</v>
       </c>
     </row>
-    <row r="147" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>6.7</v>
       </c>
@@ -11662,7 +11661,7 @@
         <v>34.4</v>
       </c>
     </row>
-    <row r="148" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>6.3</v>
       </c>
@@ -11699,7 +11698,7 @@
         <v>31.400000000000002</v>
       </c>
     </row>
-    <row r="149" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>6.5</v>
       </c>
@@ -11736,7 +11735,7 @@
         <v>33.4</v>
       </c>
     </row>
-    <row r="150" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>6.2</v>
       </c>
@@ -11773,7 +11772,7 @@
         <v>34.6</v>
       </c>
     </row>
-    <row r="151" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>5.9</v>
       </c>
@@ -11811,36 +11810,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M151">
-    <filterColumn colId="7">
-      <filters>
-        <filter val="7.5"/>
-        <filter val="7.65"/>
-        <filter val="7.84"/>
-        <filter val="8.64"/>
-        <filter val="8.82"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="11">
-      <filters>
-        <filter val="Iris-virginica"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="12">
-      <filters>
-        <filter val="27.2"/>
-        <filter val="29.4"/>
-        <filter val="30.4"/>
-        <filter val="30.6"/>
-        <filter val="31"/>
-        <filter val="31.2"/>
-        <filter val="31.4"/>
-        <filter val="31.6"/>
-        <filter val="32.2"/>
-        <filter val="32.6"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
